--- a/FileStorage/ExcelFiles/excelinsomnia.xlsx
+++ b/FileStorage/ExcelFiles/excelinsomnia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\birle\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36EB48B-1950-4360-ADED-034B69056C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290F00A8-CE6E-4D8C-A8C0-1C62BEC23652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="120" windowWidth="22080" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Email</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>management</t>
+  </si>
+  <si>
+    <t>dani@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -377,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,17 +417,28 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="e">
-        <f>1/0</f>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>11111</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{3DA7DADB-8F5B-4082-BA6C-244819246B4F}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{95309B96-E2A0-4062-90AE-537E485B4834}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FileStorage/ExcelFiles/excelinsomnia.xlsx
+++ b/FileStorage/ExcelFiles/excelinsomnia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\birle\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290F00A8-CE6E-4D8C-A8C0-1C62BEC23652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDA1B24-C2A8-4104-A2AC-272DD6B094BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="120" windowWidth="22080" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,40 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>test2@example.com</t>
-  </si>
-  <si>
-    <t>Test Two</t>
-  </si>
-  <si>
-    <t>student</t>
-  </si>
-  <si>
-    <t>birlea24@gmail.com</t>
-  </si>
-  <si>
-    <t>management</t>
-  </si>
-  <si>
-    <t>dani@gmail.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+  <si>
+    <t>DormitoryName</t>
+  </si>
+  <si>
+    <t>DormitoryAddress</t>
+  </si>
+  <si>
+    <t>RoomNumber</t>
+  </si>
+  <si>
+    <t>Tudor Hall</t>
+  </si>
+  <si>
+    <t>22 Campus Dr</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Maple Bldg</t>
+  </si>
+  <si>
+    <t>45 Forest Rd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,12 +64,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,17 +93,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -380,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -391,55 +411,91 @@
     <col min="1" max="1" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="C2" s="2">
+        <v>101</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>102</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>103</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>11111</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
+    <row r="6" spans="1:4" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{3DA7DADB-8F5B-4082-BA6C-244819246B4F}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{95309B96-E2A0-4062-90AE-537E485B4834}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FileStorage/ExcelFiles/excelinsomnia.xlsx
+++ b/FileStorage/ExcelFiles/excelinsomnia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\birle\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDA1B24-C2A8-4104-A2AC-272DD6B094BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6969ABE4-39AA-445C-94E4-D74347442A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>DormitoryName</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>45 Forest Rd</t>
+  </si>
+  <si>
+    <t>DormitoryAmount</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -411,7 +414,7 @@
     <col min="1" max="1" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,13 +422,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -433,13 +439,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
+        <v>200</v>
+      </c>
+      <c r="D2" s="2">
         <v>101</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -447,13 +456,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="2">
+        <v>200</v>
+      </c>
+      <c r="D3" s="2">
         <v>102</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -461,13 +473,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
+        <v>200</v>
+      </c>
+      <c r="D4" s="2">
         <v>103</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -475,13 +490,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -489,9 +507,12 @@
         <v>7</v>
       </c>
       <c r="C6" s="2">
+        <v>300</v>
+      </c>
+      <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
     </row>
